--- a/emails.xlsx
+++ b/emails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D1" sqref="D1"/>
@@ -516,6 +516,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>08270776287</t>
+  </si>
+  <si>
+    <t>Abdul Rahman J</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D1" sqref="D1"/>
@@ -527,6 +530,28 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
